--- a/BAYSM_2025_schedule_20250321.xlsx
+++ b/BAYSM_2025_schedule_20250321.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franzolini\Desktop\j-ISBA\BAYSM2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61708E36-EF16-4AE9-A4BC-A2D9138125F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3991D3F3-47C5-4A36-A18A-ED3FAAFE2BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>03:00 AM + 1 day</t>
-  </si>
-  <si>
-    <t>J-ISBA Concluding remarks and awards announcment</t>
   </si>
   <si>
     <t>03:30 AM + 1 day</t>
@@ -1356,6 +1353,9 @@
   <si>
     <t>Alexandros Beskos</t>
   </si>
+  <si>
+    <t>j-ISBA Concluding Remarks and Awards Announcement</t>
+  </si>
 </sst>
 </file>
 
@@ -2627,7 +2627,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="110" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="4"/>
@@ -2731,7 +2731,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="109" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="4"/>
@@ -3312,7 +3312,7 @@
         <v>38</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M20" s="40" t="s">
         <v>39</v>
@@ -3612,7 +3612,7 @@
         <v>26</v>
       </c>
       <c r="P25" s="53" t="s">
-        <v>58</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="4"/>
@@ -3655,14 +3655,14 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="110" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N26" s="109" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O26" s="52" t="s">
         <v>27</v>
@@ -3709,14 +3709,14 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="72" t="s">
         <v>20</v>
       </c>
       <c r="N27" s="71" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
@@ -3760,14 +3760,14 @@
         <v>37</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="57" t="s">
         <v>62</v>
-      </c>
-      <c r="N28" s="57" t="s">
-        <v>63</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
@@ -3811,7 +3811,7 @@
         <v>38</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="58" t="s">
@@ -3862,7 +3862,7 @@
         <v>42</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="58" t="s">
@@ -3872,7 +3872,7 @@
         <v>27</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
@@ -3916,12 +3916,12 @@
         <v>45</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="61"/>
       <c r="N31" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O31" s="34" t="s">
         <v>26</v>
@@ -3968,7 +3968,7 @@
         <v>49</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
@@ -4020,7 +4020,7 @@
         <v>54</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
@@ -4028,7 +4028,7 @@
         <v>27</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
@@ -4072,7 +4072,7 @@
         <v>57</v>
       </c>
       <c r="K34" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
@@ -4119,10 +4119,10 @@
         <v>42</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K35" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -4169,10 +4169,10 @@
         <v>45</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K36" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -4217,10 +4217,10 @@
         <v>49</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K37" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -4265,10 +4265,10 @@
         <v>54</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K38" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -29039,64 +29039,64 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
       <c r="D1" s="88"/>
       <c r="E1" s="88" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F1" s="88"/>
       <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="C2" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="D2" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="119" t="s">
-        <v>80</v>
-      </c>
       <c r="E2" s="123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F2" s="132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="C3" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="D3" s="121" t="s">
         <v>83</v>
-      </c>
-      <c r="D3" s="121" t="s">
-        <v>84</v>
       </c>
       <c r="E3" s="122"/>
     </row>
     <row r="4" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="C4" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="D4" s="121" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" s="121" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29113,50 +29113,50 @@
     </row>
     <row r="7" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="C7" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="D7" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="E7" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="123" t="s">
-        <v>93</v>
-      </c>
       <c r="F7" s="124" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="C8" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="D8" s="121" t="s">
         <v>96</v>
-      </c>
-      <c r="D8" s="121" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="C9" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="D9" s="119" t="s">
         <v>100</v>
-      </c>
-      <c r="D9" s="119" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29173,56 +29173,56 @@
     </row>
     <row r="12" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="C12" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="D12" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="E12" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="123" t="s">
-        <v>106</v>
-      </c>
       <c r="F12" s="124" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="C13" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="D13" s="121" t="s">
         <v>109</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="C14" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="D14" s="121" t="s">
         <v>113</v>
-      </c>
-      <c r="D14" s="121" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="92"/>
       <c r="C16" s="92"/>
@@ -29233,50 +29233,50 @@
     </row>
     <row r="17" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="119" t="s">
+      <c r="C17" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="D17" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="E17" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="123" t="s">
-        <v>119</v>
-      </c>
       <c r="F17" s="124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="C18" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="D18" s="121" t="s">
         <v>122</v>
-      </c>
-      <c r="D18" s="121" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="C19" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="D19" s="119" t="s">
         <v>126</v>
-      </c>
-      <c r="D19" s="119" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29293,57 +29293,57 @@
     </row>
     <row r="22" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="119" t="s">
+      <c r="C22" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="D22" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="E22" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="125" t="s">
-        <v>132</v>
-      </c>
       <c r="F22" s="124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="C23" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="D23" s="119" t="s">
         <v>135</v>
-      </c>
-      <c r="D23" s="119" t="s">
-        <v>136</v>
       </c>
       <c r="E23" s="126"/>
     </row>
     <row r="24" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="119" t="s">
+      <c r="C24" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="D24" s="119" t="s">
         <v>139</v>
-      </c>
-      <c r="D24" s="119" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
@@ -29354,50 +29354,50 @@
     </row>
     <row r="27" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="C27" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="121" t="s">
-        <v>143</v>
-      </c>
       <c r="E27" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" s="130" t="s">
         <v>422</v>
-      </c>
-      <c r="F27" s="130" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="119" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="119" t="s">
+      <c r="D28" s="119" t="s">
         <v>145</v>
-      </c>
-      <c r="D28" s="119" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="C29" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="D29" s="119" t="s">
         <v>149</v>
-      </c>
-      <c r="D29" s="119" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29414,50 +29414,50 @@
     </row>
     <row r="32" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="C32" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="D32" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="E32" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="123" t="s">
-        <v>155</v>
-      </c>
       <c r="F32" s="124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="119" t="s">
+      <c r="C33" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="D33" s="119" t="s">
         <v>158</v>
-      </c>
-      <c r="D33" s="119" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="121" t="s">
+      <c r="C34" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="121" t="s">
+      <c r="D34" s="121" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="121" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29474,50 +29474,50 @@
     </row>
     <row r="37" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="119" t="s">
+      <c r="C37" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="D37" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="E37" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="123" t="s">
-        <v>168</v>
-      </c>
       <c r="F37" s="124" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="119" t="s">
+      <c r="C38" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="119" t="s">
         <v>170</v>
-      </c>
-      <c r="C38" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="119" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="119" t="s">
+      <c r="D39" s="119" t="s">
         <v>173</v>
-      </c>
-      <c r="D39" s="119" t="s">
-        <v>174</v>
       </c>
       <c r="E39" s="127"/>
     </row>
@@ -29526,7 +29526,7 @@
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
@@ -29537,50 +29537,50 @@
     </row>
     <row r="42" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="121" t="s">
-        <v>176</v>
-      </c>
       <c r="E42" s="123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F42" s="124" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="C43" s="121" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="121" t="s">
+      <c r="D43" s="121" t="s">
         <v>179</v>
-      </c>
-      <c r="D43" s="121" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="119" t="s">
+      <c r="C44" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="119" t="s">
         <v>182</v>
-      </c>
-      <c r="C44" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="119" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29597,50 +29597,50 @@
     </row>
     <row r="47" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="119" t="s">
+      <c r="C47" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="119" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="119" t="s">
+      <c r="E47" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="123" t="s">
-        <v>187</v>
-      </c>
       <c r="F47" s="124" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="121" t="s">
+      <c r="C48" s="121" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="121" t="s">
+      <c r="D48" s="121" t="s">
         <v>190</v>
-      </c>
-      <c r="D48" s="121" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="121" t="s">
+      <c r="C49" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="121" t="s">
+      <c r="D49" s="121" t="s">
         <v>194</v>
-      </c>
-      <c r="D49" s="121" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29657,64 +29657,64 @@
     </row>
     <row r="52" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="B52" s="119" t="s">
+      <c r="C52" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="D52" s="119" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="119" t="s">
+      <c r="E52" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E52" s="123" t="s">
-        <v>200</v>
-      </c>
       <c r="F52" s="124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="121" t="s">
+      <c r="C53" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="121" t="s">
         <v>202</v>
-      </c>
-      <c r="C53" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="121" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="119" t="s">
+      <c r="C54" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="119" t="s">
+      <c r="D54" s="119" t="s">
         <v>206</v>
-      </c>
-      <c r="D54" s="119" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="119" t="s">
+      <c r="C55" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="119" t="s">
+      <c r="D55" s="119" t="s">
         <v>210</v>
-      </c>
-      <c r="D55" s="119" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29731,51 +29731,51 @@
     </row>
     <row r="58" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="119" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="119" t="s">
+      <c r="C58" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="D58" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="D58" s="119" t="s">
+      <c r="E58" s="125" t="s">
         <v>215</v>
       </c>
-      <c r="E58" s="125" t="s">
-        <v>216</v>
-      </c>
       <c r="F58" s="124" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="121" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="121" t="s">
+      <c r="C59" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="121" t="s">
+      <c r="D59" s="121" t="s">
         <v>219</v>
-      </c>
-      <c r="D59" s="121" t="s">
-        <v>220</v>
       </c>
       <c r="E59" s="126"/>
     </row>
     <row r="60" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="119" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="B60" s="119" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="119" t="s">
+      <c r="D60" s="119" t="s">
         <v>222</v>
-      </c>
-      <c r="D60" s="119" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29792,56 +29792,56 @@
     </row>
     <row r="63" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="B63" s="119" t="s">
+      <c r="C63" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="119" t="s">
+      <c r="E63" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="E63" s="123" t="s">
-        <v>227</v>
-      </c>
       <c r="F63" s="124" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="119" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="B64" s="119" t="s">
+      <c r="C64" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="119" t="s">
         <v>229</v>
-      </c>
-      <c r="C64" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="119" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="119" t="s">
+      <c r="C65" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="119" t="s">
         <v>232</v>
-      </c>
-      <c r="C65" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="119" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="100"/>
       <c r="C67" s="100"/>
@@ -29852,50 +29852,50 @@
     </row>
     <row r="68" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" s="119" t="s">
         <v>234</v>
       </c>
-      <c r="B68" s="119" t="s">
+      <c r="C68" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="C68" s="119" t="s">
+      <c r="D68" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="D68" s="119" t="s">
+      <c r="E68" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="E68" s="123" t="s">
-        <v>238</v>
-      </c>
       <c r="F68" s="124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="121" t="s">
         <v>239</v>
-      </c>
-      <c r="C69" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="121" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="C70" s="119" t="s">
+      <c r="D70" s="119" t="s">
         <v>242</v>
-      </c>
-      <c r="D70" s="119" t="s">
-        <v>243</v>
       </c>
       <c r="E70" s="126"/>
     </row>
@@ -29913,65 +29913,65 @@
     </row>
     <row r="73" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="B73" s="121" t="s">
+      <c r="C73" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="121" t="s">
+      <c r="D73" s="121" t="s">
         <v>246</v>
       </c>
-      <c r="D73" s="121" t="s">
-        <v>247</v>
-      </c>
       <c r="E73" s="133" t="s">
+        <v>425</v>
+      </c>
+      <c r="F73" s="120" t="s">
         <v>426</v>
-      </c>
-      <c r="F73" s="120" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="C74" s="121" t="s">
+      <c r="D74" s="121" t="s">
         <v>249</v>
-      </c>
-      <c r="D74" s="121" t="s">
-        <v>250</v>
       </c>
       <c r="E74" s="128"/>
     </row>
     <row r="75" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="121" t="s">
+      <c r="C75" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="121" t="s">
+      <c r="D75" s="121" t="s">
         <v>253</v>
-      </c>
-      <c r="D75" s="121" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="B76" s="119" t="s">
+      <c r="C76" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="C76" s="119" t="s">
+      <c r="D76" s="119" t="s">
         <v>257</v>
-      </c>
-      <c r="D76" s="119" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29988,50 +29988,50 @@
     </row>
     <row r="79" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="B79" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="B79" s="121" t="s">
+      <c r="C79" s="121" t="s">
         <v>261</v>
       </c>
-      <c r="C79" s="121" t="s">
+      <c r="D79" s="121" t="s">
         <v>262</v>
       </c>
-      <c r="D79" s="121" t="s">
+      <c r="E79" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="E79" s="123" t="s">
-        <v>264</v>
-      </c>
       <c r="F79" s="124" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="B80" s="119" t="s">
         <v>265</v>
       </c>
-      <c r="B80" s="119" t="s">
+      <c r="C80" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="119" t="s">
         <v>266</v>
-      </c>
-      <c r="C80" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" s="119" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="121" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="121" t="s">
+      <c r="C81" s="121" t="s">
         <v>269</v>
       </c>
-      <c r="C81" s="121" t="s">
+      <c r="D81" s="121" t="s">
         <v>270</v>
-      </c>
-      <c r="D81" s="121" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30048,56 +30048,56 @@
     </row>
     <row r="84" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="B84" s="119" t="s">
+      <c r="C84" s="119" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="119" t="s">
+      <c r="D84" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="D84" s="119" t="s">
-        <v>275</v>
-      </c>
       <c r="E84" s="131" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F84" s="120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="121" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="B85" s="121" t="s">
+      <c r="C85" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="121" t="s">
         <v>277</v>
-      </c>
-      <c r="C85" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="121" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="C86" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="B86" s="121" t="s">
-        <v>354</v>
-      </c>
-      <c r="C86" s="121" t="s">
+      <c r="D86" s="121" t="s">
         <v>280</v>
-      </c>
-      <c r="D86" s="121" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B88" s="104"/>
       <c r="C88" s="104"/>
@@ -30108,51 +30108,51 @@
     </row>
     <row r="89" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="B89" s="119" t="s">
+      <c r="C89" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="C89" s="119" t="s">
+      <c r="D89" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="D89" s="119" t="s">
-        <v>285</v>
-      </c>
       <c r="E89" s="123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F89" s="124" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" s="121" t="s">
         <v>286</v>
       </c>
-      <c r="B90" s="121" t="s">
+      <c r="C90" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="C90" s="121" t="s">
+      <c r="D90" s="121" t="s">
         <v>288</v>
-      </c>
-      <c r="D90" s="121" t="s">
-        <v>289</v>
       </c>
       <c r="E90" s="129"/>
     </row>
     <row r="91" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="121" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="B91" s="121" t="s">
+      <c r="C91" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="121" t="s">
         <v>291</v>
-      </c>
-      <c r="C91" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="121" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30169,50 +30169,50 @@
     </row>
     <row r="94" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" s="121" t="s">
         <v>293</v>
       </c>
-      <c r="B94" s="121" t="s">
+      <c r="C94" s="121" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="121" t="s">
+      <c r="D94" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="121" t="s">
-        <v>296</v>
-      </c>
       <c r="E94" s="133" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F94" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="121" t="s">
+        <v>296</v>
+      </c>
+      <c r="B95" s="121" t="s">
         <v>297</v>
       </c>
-      <c r="B95" s="121" t="s">
+      <c r="C95" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="C95" s="121" t="s">
+      <c r="D95" s="121" t="s">
         <v>299</v>
-      </c>
-      <c r="D95" s="121" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="121" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" s="121" t="s">
         <v>301</v>
       </c>
-      <c r="B96" s="121" t="s">
+      <c r="C96" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="121" t="s">
         <v>302</v>
-      </c>
-      <c r="C96" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="121" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="97" s="120" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31146,7 +31146,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="108" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -31168,16 +31168,16 @@
     </row>
     <row r="2" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="C2" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="D2" s="112" t="s">
         <v>306</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>307</v>
       </c>
       <c r="E2" s="111"/>
       <c r="F2" s="113"/>
@@ -31196,16 +31196,16 @@
     </row>
     <row r="3" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="112" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="C3" s="112" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="D3" s="112" t="s">
         <v>310</v>
-      </c>
-      <c r="D3" s="112" t="s">
-        <v>311</v>
       </c>
       <c r="E3" s="111"/>
       <c r="F3" s="113"/>
@@ -31224,16 +31224,16 @@
     </row>
     <row r="4" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="112" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="112" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="C4" s="112" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="D4" s="112" t="s">
         <v>314</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>315</v>
       </c>
       <c r="E4" s="111"/>
       <c r="F4" s="113"/>
@@ -31252,16 +31252,16 @@
     </row>
     <row r="5" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="112" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="112" t="s">
         <v>316</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>317</v>
       </c>
       <c r="E5" s="111"/>
       <c r="F5" s="113"/>
@@ -31280,16 +31280,16 @@
     </row>
     <row r="6" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="115" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="115" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="C6" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="115" t="s">
         <v>319</v>
-      </c>
-      <c r="C6" s="115" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="115" t="s">
-        <v>320</v>
       </c>
       <c r="E6" s="111"/>
       <c r="F6" s="113"/>
@@ -31308,16 +31308,16 @@
     </row>
     <row r="7" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="112" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="C7" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="112" t="s">
         <v>322</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="112" t="s">
-        <v>323</v>
       </c>
       <c r="E7" s="111"/>
       <c r="F7" s="113"/>
@@ -31336,16 +31336,16 @@
     </row>
     <row r="8" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="C8" s="115" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="115" t="s">
         <v>325</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="115" t="s">
-        <v>326</v>
       </c>
       <c r="E8" s="111"/>
       <c r="F8" s="113"/>
@@ -31384,7 +31384,7 @@
     </row>
     <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="108" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -31406,16 +31406,16 @@
     </row>
     <row r="11" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="115" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="C11" s="115" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="D11" s="115" t="s">
         <v>329</v>
-      </c>
-      <c r="D11" s="115" t="s">
-        <v>330</v>
       </c>
       <c r="E11" s="116"/>
       <c r="F11" s="113"/>
@@ -31434,16 +31434,16 @@
     </row>
     <row r="12" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="115" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="115" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="C12" s="115" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="D12" s="115" t="s">
         <v>333</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>334</v>
       </c>
       <c r="E12" s="116"/>
       <c r="F12" s="113"/>
@@ -31462,16 +31462,16 @@
     </row>
     <row r="13" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="C13" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="D13" s="112" t="s">
         <v>337</v>
-      </c>
-      <c r="D13" s="112" t="s">
-        <v>338</v>
       </c>
       <c r="E13" s="116"/>
       <c r="F13" s="113"/>
@@ -31490,16 +31490,16 @@
     </row>
     <row r="14" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="117" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="C14" s="117" t="s">
         <v>340</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="D14" s="117" t="s">
         <v>341</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>342</v>
       </c>
       <c r="E14" s="116"/>
       <c r="F14" s="113"/>
@@ -31518,16 +31518,16 @@
     </row>
     <row r="15" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="115" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="115" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="C15" s="115" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="D15" s="115" t="s">
         <v>345</v>
-      </c>
-      <c r="D15" s="115" t="s">
-        <v>346</v>
       </c>
       <c r="E15" s="116"/>
       <c r="F15" s="113"/>
@@ -31546,16 +31546,16 @@
     </row>
     <row r="16" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="112" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="C16" s="112" t="s">
         <v>348</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="D16" s="112" t="s">
         <v>349</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>350</v>
       </c>
       <c r="E16" s="116"/>
       <c r="F16" s="113"/>
@@ -31574,16 +31574,16 @@
     </row>
     <row r="17" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="115" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="115" t="s">
         <v>351</v>
-      </c>
-      <c r="D17" s="115" t="s">
-        <v>352</v>
       </c>
       <c r="E17" s="116"/>
       <c r="F17" s="113"/>
@@ -31622,7 +31622,7 @@
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="107" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B19" s="69"/>
       <c r="C19" s="69"/>
@@ -31644,16 +31644,16 @@
     </row>
     <row r="20" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="115" t="s">
         <v>353</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="C20" s="115" t="s">
         <v>354</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="D20" s="119" t="s">
         <v>355</v>
-      </c>
-      <c r="D20" s="119" t="s">
-        <v>356</v>
       </c>
       <c r="E20" s="118"/>
       <c r="F20" s="113"/>
@@ -31672,16 +31672,16 @@
     </row>
     <row r="21" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="115" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="115" t="s">
         <v>357</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="C21" s="115" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="D21" s="119" t="s">
         <v>359</v>
-      </c>
-      <c r="D21" s="119" t="s">
-        <v>360</v>
       </c>
       <c r="E21" s="118"/>
       <c r="F21" s="113"/>
@@ -31700,16 +31700,16 @@
     </row>
     <row r="22" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B22" s="115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E22" s="118"/>
       <c r="F22" s="113"/>
@@ -31728,16 +31728,16 @@
     </row>
     <row r="23" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="115" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="C23" s="115" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="D23" s="119" t="s">
         <v>364</v>
-      </c>
-      <c r="D23" s="119" t="s">
-        <v>365</v>
       </c>
       <c r="E23" s="118"/>
       <c r="F23" s="113"/>
@@ -31756,16 +31756,16 @@
     </row>
     <row r="24" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="112" t="s">
         <v>366</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="C24" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="121" t="s">
         <v>367</v>
-      </c>
-      <c r="C24" s="112" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="121" t="s">
-        <v>368</v>
       </c>
       <c r="E24" s="118"/>
       <c r="F24" s="113"/>
@@ -31784,16 +31784,16 @@
     </row>
     <row r="25" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="112" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="112" t="s">
         <v>369</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="C25" s="112" t="s">
         <v>370</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="D25" s="121" t="s">
         <v>371</v>
-      </c>
-      <c r="D25" s="121" t="s">
-        <v>372</v>
       </c>
       <c r="E25" s="118"/>
       <c r="F25" s="113"/>
@@ -31832,7 +31832,7 @@
     </row>
     <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -31854,16 +31854,16 @@
     </row>
     <row r="28" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="112" t="s">
         <v>373</v>
       </c>
-      <c r="B28" s="112" t="s">
+      <c r="C28" s="112" t="s">
         <v>374</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="D28" s="112" t="s">
         <v>375</v>
-      </c>
-      <c r="D28" s="112" t="s">
-        <v>376</v>
       </c>
       <c r="E28" s="118"/>
       <c r="F28" s="113"/>
@@ -31882,16 +31882,16 @@
     </row>
     <row r="29" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="112" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="112" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="D29" s="112" t="s">
         <v>378</v>
-      </c>
-      <c r="D29" s="112" t="s">
-        <v>379</v>
       </c>
       <c r="E29" s="118"/>
       <c r="F29" s="113"/>
@@ -31910,16 +31910,16 @@
     </row>
     <row r="30" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="112" t="s">
+        <v>379</v>
+      </c>
+      <c r="B30" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="C30" s="112" t="s">
         <v>381</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="D30" s="112" t="s">
         <v>382</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>383</v>
       </c>
       <c r="E30" s="118"/>
       <c r="F30" s="113"/>
@@ -31938,16 +31938,16 @@
     </row>
     <row r="31" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="115" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" s="115" t="s">
         <v>384</v>
-      </c>
-      <c r="B31" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" s="115" t="s">
-        <v>355</v>
-      </c>
-      <c r="D31" s="115" t="s">
-        <v>385</v>
       </c>
       <c r="E31" s="118"/>
       <c r="F31" s="113"/>
@@ -31966,16 +31966,16 @@
     </row>
     <row r="32" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="112" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" s="112" t="s">
         <v>386</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="C32" s="112" t="s">
         <v>387</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="D32" s="112" t="s">
         <v>388</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>389</v>
       </c>
       <c r="E32" s="118"/>
       <c r="F32" s="113"/>
@@ -31994,16 +31994,16 @@
     </row>
     <row r="33" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="112" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="112" t="s">
         <v>390</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="C33" s="112" t="s">
         <v>391</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="D33" s="112" t="s">
         <v>392</v>
-      </c>
-      <c r="D33" s="112" t="s">
-        <v>393</v>
       </c>
       <c r="E33" s="118"/>
       <c r="F33" s="113"/>
@@ -32022,16 +32022,16 @@
     </row>
     <row r="34" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="115" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="115" t="s">
         <v>394</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="C34" s="115" t="s">
         <v>395</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="D34" s="115" t="s">
         <v>396</v>
-      </c>
-      <c r="D34" s="115" t="s">
-        <v>397</v>
       </c>
       <c r="E34" s="118"/>
       <c r="F34" s="113"/>
@@ -32050,16 +32050,16 @@
     </row>
     <row r="35" spans="1:18" s="114" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="112" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="C35" s="112" t="s">
         <v>399</v>
       </c>
-      <c r="C35" s="112" t="s">
+      <c r="D35" s="112" t="s">
         <v>400</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>401</v>
       </c>
       <c r="E35" s="118"/>
       <c r="F35" s="113"/>
